--- a/Allegati/2a.xlsx
+++ b/Allegati/2a.xlsx
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -59,12 +59,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -348,51 +437,81 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2">
         <v>1981</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5012</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>8269</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>10907</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>11805</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>13539</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>16181</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>18009</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>18608</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>18662</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>18834</v>
       </c>
     </row>
@@ -400,34 +519,34 @@
       <c r="B3">
         <v>1982</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>106</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>4285</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>5396</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>10666</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>13782</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>15599</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>15496</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>16169</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>16704</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -435,34 +554,34 @@
       <c r="B4">
         <v>1983</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>3410</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>8992</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>13873</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>16141</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>18735</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>22214</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>22863</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>23466</v>
       </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -470,34 +589,34 @@
       <c r="B5">
         <v>1984</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>5655</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>11555</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>15766</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>21266</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>23425</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>26083</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>27067</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -505,34 +624,34 @@
       <c r="B6">
         <v>1985</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1092</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>9565</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>15836</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>22169</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>25955</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>26180</v>
       </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -540,34 +659,34 @@
       <c r="B7">
         <v>1986</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1513</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>6445</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>11702</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>12935</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>15852</v>
       </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -575,34 +694,34 @@
       <c r="B8">
         <v>1987</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>557</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>4020</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>10946</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>12314</v>
       </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -610,34 +729,34 @@
       <c r="B9">
         <v>1988</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1351</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>6947</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>13112</v>
       </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -645,69 +764,69 @@
       <c r="B10">
         <v>1989</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>3133</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>5395</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1990</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>2063</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>2</v>
       </c>
     </row>
